--- a/scuelo/export_sics/External students.xlsx
+++ b/scuelo/export_sics/External students.xlsx
@@ -1,18 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/enricosonno/Documents/ONLUS/00 Djicofè Gestione/00 DB relazionale/porting su SQL/AAA primo ambiente di sviluppo/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDF883E9-F03B-C240-89DB-D46E267E8ED0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="16380" windowHeight="8200" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Classe" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Scuole" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Studente" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Classe" sheetId="1" r:id="rId1"/>
+    <sheet name="Scuole" sheetId="2" r:id="rId2"/>
+    <sheet name="Studente" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Studente!$A$1:$T$1</definedName>
+  </definedNames>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -24,1103 +32,1086 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="354">
   <si>
-    <t xml:space="preserve">_PK_Classe_ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">__FK_Scuola_ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">__FK_Tipo_Classe_ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nome_Classe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ordinamento_Classe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_PK-6me-TBD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sc_TBD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PK_6me</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6me-TBD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_PK-5me-TBD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PK_5me</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5me-TBD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_PK-4me-TBD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PK_4me</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4me-TBD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_PK-3me-TBD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PK_3me</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3me-TBD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_PK-2me-TBD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PK_2me</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2me-TBD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_PK-1ere-TBD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PK_1ere</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1ere-TBD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_PK-Term-TBD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PK_Term</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Term-TBD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_PK-6me-LMS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sc_LMS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6me-LMS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_PK-5me-LMS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5me-LMS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_PK-4me-LMS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4me-LMS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_PK-3me-LMS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3me-LMS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_PK-2me-LMS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2me-LMS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_PK-1ere-LMS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1ere-LMS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_PK-Term-LMS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Term-LMS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_PK-6me-WLM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sc_WLM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6me-WLM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_PK-5me-WLM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5me-WLM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_PK-4me-WLM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4me-WLM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_PK-3me-WLM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3me-WLM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_PK-2me-WLM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2me-WLM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_PK-1ere-WLM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1ere-WLM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_PK-Term-WLM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Term-WLM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_PK-6me-LPMSBD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sc_LPMSBD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6me-LPMSBD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_PK-5me-LPMSBD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5me-LPMSBD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_PK-4me-LPMSBD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4me-LPMSBD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_PK-3me-LPMSBD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3me-LPMSBD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_PK-2me-LPMSBD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2me-LPMSBD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_PK-1ere-LPMSBD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1ere-LPMSBD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_PK-Term-LPMSBD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Term-LPMSBD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_PK-6me-WP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sc_WP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6me-WP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_PK-5me-WP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5me-WP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_PK-4me-WP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4me-WP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_PK-3me-WP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3me-WP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_PK-2me-WP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2me-WP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_PK-1ere-WP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1ere-WP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_PK-Term-WP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Term-WP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_PK-CP1-EPCELP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sc_EPCELP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PK_CP1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CP1-EPCELP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_PK-CP2-EPCELP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PK_CP2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CP2-EPCELP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_PK-CE1-EPCELP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PK_CE1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CE1-EPCELP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_PK-CE2-EPCELP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PK_CE2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CE2-EPCELP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_PK-CM1-EPCELP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PK_CM1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CM1-EPCELP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_PK-CM2-EPCELP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PK_CM2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CM2-EPCELP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_PK-CP1-EPPLE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sc_EPPLE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CP1-EPPLE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_PK-CP2-EPPLE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CP2-EPPLE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_PK-CE1-EPPLE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CE1-EPPLE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_PK-CE2-EPPLE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CE2-EPPLE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_PK-CM1-EPPLE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CM1-EPPLE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_PK-CM2-EPPLE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CM2-EPPLE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_PK-CP1-YAMT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sc_YAMT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CP1-YAMT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_PK-CP2-YAMT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CP2-YAMT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_PK-CE1-YAMT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CE1-YAMT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_PK-CE2-YAMT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CE2-YAMT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_PK-CM1-YAMT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CM1-YAMT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_PK-CM2-YAMT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CM2-YAMT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_PK-CP1-LSB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sc_LSB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CP1-LSB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_PK-CP2-LSB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CP2-LSB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_PK-CE1-LSB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CE1-LSB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_PK-CE2-LSB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CE2-LSB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_PK-CM1-LSB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CM1-LSB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_PK-CM2-LSB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CM2-LSB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_PK_Scuola_ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nome_Scuola</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ordine _Scuola</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Note_Scuola</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tipo_Scuola</t>
-  </si>
-  <si>
-    <t xml:space="preserve">acronyme</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sc_Nas_Mat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">École Maternelle Centre social de Nasara</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maternelle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mat-Nas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sc_Nas_Pri</t>
-  </si>
-  <si>
-    <t xml:space="preserve">École primaire Centre social de Nasara</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Primaire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pri-Nas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lycee Municipal de saaba</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lycée</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lic-LMS</t>
+    <t>_PK_Classe_ID</t>
+  </si>
+  <si>
+    <t>__FK_Scuola_ID</t>
+  </si>
+  <si>
+    <t>__FK_Tipo_Classe_ID</t>
+  </si>
+  <si>
+    <t>Nome_Classe</t>
+  </si>
+  <si>
+    <t>Ordinamento_Classe</t>
+  </si>
+  <si>
+    <t>_PK-6me-TBD</t>
+  </si>
+  <si>
+    <t>Sc_TBD</t>
+  </si>
+  <si>
+    <t>PK_6me</t>
+  </si>
+  <si>
+    <t>6me-TBD</t>
+  </si>
+  <si>
+    <t>_PK-5me-TBD</t>
+  </si>
+  <si>
+    <t>PK_5me</t>
+  </si>
+  <si>
+    <t>5me-TBD</t>
+  </si>
+  <si>
+    <t>_PK-4me-TBD</t>
+  </si>
+  <si>
+    <t>PK_4me</t>
+  </si>
+  <si>
+    <t>4me-TBD</t>
+  </si>
+  <si>
+    <t>_PK-3me-TBD</t>
+  </si>
+  <si>
+    <t>PK_3me</t>
+  </si>
+  <si>
+    <t>3me-TBD</t>
+  </si>
+  <si>
+    <t>_PK-2me-TBD</t>
+  </si>
+  <si>
+    <t>PK_2me</t>
+  </si>
+  <si>
+    <t>2me-TBD</t>
+  </si>
+  <si>
+    <t>_PK-1ere-TBD</t>
+  </si>
+  <si>
+    <t>PK_1ere</t>
+  </si>
+  <si>
+    <t>1ere-TBD</t>
+  </si>
+  <si>
+    <t>_PK-Term-TBD</t>
+  </si>
+  <si>
+    <t>PK_Term</t>
+  </si>
+  <si>
+    <t>Term-TBD</t>
+  </si>
+  <si>
+    <t>_PK-6me-LMS</t>
+  </si>
+  <si>
+    <t>Sc_LMS</t>
+  </si>
+  <si>
+    <t>6me-LMS</t>
+  </si>
+  <si>
+    <t>_PK-5me-LMS</t>
+  </si>
+  <si>
+    <t>5me-LMS</t>
+  </si>
+  <si>
+    <t>_PK-4me-LMS</t>
+  </si>
+  <si>
+    <t>4me-LMS</t>
+  </si>
+  <si>
+    <t>_PK-3me-LMS</t>
+  </si>
+  <si>
+    <t>3me-LMS</t>
+  </si>
+  <si>
+    <t>_PK-2me-LMS</t>
+  </si>
+  <si>
+    <t>2me-LMS</t>
+  </si>
+  <si>
+    <t>_PK-1ere-LMS</t>
+  </si>
+  <si>
+    <t>1ere-LMS</t>
+  </si>
+  <si>
+    <t>_PK-Term-LMS</t>
+  </si>
+  <si>
+    <t>Term-LMS</t>
+  </si>
+  <si>
+    <t>_PK-6me-WLM</t>
+  </si>
+  <si>
+    <t>Sc_WLM</t>
+  </si>
+  <si>
+    <t>6me-WLM</t>
+  </si>
+  <si>
+    <t>_PK-5me-WLM</t>
+  </si>
+  <si>
+    <t>5me-WLM</t>
+  </si>
+  <si>
+    <t>_PK-4me-WLM</t>
+  </si>
+  <si>
+    <t>4me-WLM</t>
+  </si>
+  <si>
+    <t>_PK-3me-WLM</t>
+  </si>
+  <si>
+    <t>3me-WLM</t>
+  </si>
+  <si>
+    <t>_PK-2me-WLM</t>
+  </si>
+  <si>
+    <t>2me-WLM</t>
+  </si>
+  <si>
+    <t>_PK-1ere-WLM</t>
+  </si>
+  <si>
+    <t>1ere-WLM</t>
+  </si>
+  <si>
+    <t>_PK-Term-WLM</t>
+  </si>
+  <si>
+    <t>Term-WLM</t>
+  </si>
+  <si>
+    <t>_PK-6me-LPMSBD</t>
+  </si>
+  <si>
+    <t>Sc_LPMSBD</t>
+  </si>
+  <si>
+    <t>6me-LPMSBD</t>
+  </si>
+  <si>
+    <t>_PK-5me-LPMSBD</t>
+  </si>
+  <si>
+    <t>5me-LPMSBD</t>
+  </si>
+  <si>
+    <t>_PK-4me-LPMSBD</t>
+  </si>
+  <si>
+    <t>4me-LPMSBD</t>
+  </si>
+  <si>
+    <t>_PK-3me-LPMSBD</t>
+  </si>
+  <si>
+    <t>3me-LPMSBD</t>
+  </si>
+  <si>
+    <t>_PK-2me-LPMSBD</t>
+  </si>
+  <si>
+    <t>2me-LPMSBD</t>
+  </si>
+  <si>
+    <t>_PK-1ere-LPMSBD</t>
+  </si>
+  <si>
+    <t>1ere-LPMSBD</t>
+  </si>
+  <si>
+    <t>_PK-Term-LPMSBD</t>
+  </si>
+  <si>
+    <t>Term-LPMSBD</t>
+  </si>
+  <si>
+    <t>_PK-6me-WP</t>
+  </si>
+  <si>
+    <t>Sc_WP</t>
+  </si>
+  <si>
+    <t>6me-WP</t>
+  </si>
+  <si>
+    <t>_PK-5me-WP</t>
+  </si>
+  <si>
+    <t>5me-WP</t>
+  </si>
+  <si>
+    <t>_PK-4me-WP</t>
+  </si>
+  <si>
+    <t>4me-WP</t>
+  </si>
+  <si>
+    <t>_PK-3me-WP</t>
+  </si>
+  <si>
+    <t>3me-WP</t>
+  </si>
+  <si>
+    <t>_PK-2me-WP</t>
+  </si>
+  <si>
+    <t>2me-WP</t>
+  </si>
+  <si>
+    <t>_PK-1ere-WP</t>
+  </si>
+  <si>
+    <t>1ere-WP</t>
+  </si>
+  <si>
+    <t>_PK-Term-WP</t>
+  </si>
+  <si>
+    <t>Term-WP</t>
+  </si>
+  <si>
+    <t>_PK-CP1-EPCELP</t>
+  </si>
+  <si>
+    <t>Sc_EPCELP</t>
+  </si>
+  <si>
+    <t>PK_CP1</t>
+  </si>
+  <si>
+    <t>CP1-EPCELP</t>
+  </si>
+  <si>
+    <t>_PK-CP2-EPCELP</t>
+  </si>
+  <si>
+    <t>PK_CP2</t>
+  </si>
+  <si>
+    <t>CP2-EPCELP</t>
+  </si>
+  <si>
+    <t>_PK-CE1-EPCELP</t>
+  </si>
+  <si>
+    <t>PK_CE1</t>
+  </si>
+  <si>
+    <t>CE1-EPCELP</t>
+  </si>
+  <si>
+    <t>_PK-CE2-EPCELP</t>
+  </si>
+  <si>
+    <t>PK_CE2</t>
+  </si>
+  <si>
+    <t>CE2-EPCELP</t>
+  </si>
+  <si>
+    <t>_PK-CM1-EPCELP</t>
+  </si>
+  <si>
+    <t>PK_CM1</t>
+  </si>
+  <si>
+    <t>CM1-EPCELP</t>
+  </si>
+  <si>
+    <t>_PK-CM2-EPCELP</t>
+  </si>
+  <si>
+    <t>PK_CM2</t>
+  </si>
+  <si>
+    <t>CM2-EPCELP</t>
+  </si>
+  <si>
+    <t>_PK-CP1-EPPLE</t>
+  </si>
+  <si>
+    <t>Sc_EPPLE</t>
+  </si>
+  <si>
+    <t>CP1-EPPLE</t>
+  </si>
+  <si>
+    <t>_PK-CP2-EPPLE</t>
+  </si>
+  <si>
+    <t>CP2-EPPLE</t>
+  </si>
+  <si>
+    <t>_PK-CE1-EPPLE</t>
+  </si>
+  <si>
+    <t>CE1-EPPLE</t>
+  </si>
+  <si>
+    <t>_PK-CE2-EPPLE</t>
+  </si>
+  <si>
+    <t>CE2-EPPLE</t>
+  </si>
+  <si>
+    <t>_PK-CM1-EPPLE</t>
+  </si>
+  <si>
+    <t>CM1-EPPLE</t>
+  </si>
+  <si>
+    <t>_PK-CM2-EPPLE</t>
+  </si>
+  <si>
+    <t>CM2-EPPLE</t>
+  </si>
+  <si>
+    <t>_PK-CP1-YAMT</t>
+  </si>
+  <si>
+    <t>Sc_YAMT</t>
+  </si>
+  <si>
+    <t>CP1-YAMT</t>
+  </si>
+  <si>
+    <t>_PK-CP2-YAMT</t>
+  </si>
+  <si>
+    <t>CP2-YAMT</t>
+  </si>
+  <si>
+    <t>_PK-CE1-YAMT</t>
+  </si>
+  <si>
+    <t>CE1-YAMT</t>
+  </si>
+  <si>
+    <t>_PK-CE2-YAMT</t>
+  </si>
+  <si>
+    <t>CE2-YAMT</t>
+  </si>
+  <si>
+    <t>_PK-CM1-YAMT</t>
+  </si>
+  <si>
+    <t>CM1-YAMT</t>
+  </si>
+  <si>
+    <t>_PK-CM2-YAMT</t>
+  </si>
+  <si>
+    <t>CM2-YAMT</t>
+  </si>
+  <si>
+    <t>_PK-CP1-LSB</t>
+  </si>
+  <si>
+    <t>Sc_LSB</t>
+  </si>
+  <si>
+    <t>CP1-LSB</t>
+  </si>
+  <si>
+    <t>_PK-CP2-LSB</t>
+  </si>
+  <si>
+    <t>CP2-LSB</t>
+  </si>
+  <si>
+    <t>_PK-CE1-LSB</t>
+  </si>
+  <si>
+    <t>CE1-LSB</t>
+  </si>
+  <si>
+    <t>_PK-CE2-LSB</t>
+  </si>
+  <si>
+    <t>CE2-LSB</t>
+  </si>
+  <si>
+    <t>_PK-CM1-LSB</t>
+  </si>
+  <si>
+    <t>CM1-LSB</t>
+  </si>
+  <si>
+    <t>_PK-CM2-LSB</t>
+  </si>
+  <si>
+    <t>CM2-LSB</t>
+  </si>
+  <si>
+    <t>_PK_Scuola_ID</t>
+  </si>
+  <si>
+    <t>Nome_Scuola</t>
+  </si>
+  <si>
+    <t>Ordine _Scuola</t>
+  </si>
+  <si>
+    <t>Note_Scuola</t>
+  </si>
+  <si>
+    <t>Tipo_Scuola</t>
+  </si>
+  <si>
+    <t>acronyme</t>
+  </si>
+  <si>
+    <t>Sc_Nas_Mat</t>
+  </si>
+  <si>
+    <t>École Maternelle Centre social de Nasara</t>
+  </si>
+  <si>
+    <t>Maternelle</t>
+  </si>
+  <si>
+    <t>Mat-Nas</t>
+  </si>
+  <si>
+    <t>Sc_Nas_Pri</t>
+  </si>
+  <si>
+    <t>École primaire Centre social de Nasara</t>
+  </si>
+  <si>
+    <t>Primaire</t>
+  </si>
+  <si>
+    <t>Pri-Nas</t>
+  </si>
+  <si>
+    <t>Lycee Municipal de saaba</t>
+  </si>
+  <si>
+    <t>Lycée</t>
+  </si>
+  <si>
+    <t>Lic-LMS</t>
   </si>
   <si>
     <t xml:space="preserve">Ecole WEND LA MANEGDA </t>
   </si>
   <si>
-    <t xml:space="preserve">Lic-WLM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lycee Provincial Molla Sanou de Bobo Dioulasso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lic-LPMSBB</t>
+    <t>Lic-WLM</t>
+  </si>
+  <si>
+    <t>Lycee Provincial Molla Sanou de Bobo Dioulasso</t>
+  </si>
+  <si>
+    <t>Lic-LPMSBB</t>
   </si>
   <si>
     <t xml:space="preserve">Ecole wend panga </t>
   </si>
   <si>
-    <t xml:space="preserve">Pri-WP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ecole Primaire Catholique Effata Ludovic Pavoni</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pri-EPCELP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ecole Primaire Privé Les EMERITES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pri-EPPLE</t>
+    <t>Pri-WP</t>
+  </si>
+  <si>
+    <t>Ecole Primaire Catholique Effata Ludovic Pavoni</t>
+  </si>
+  <si>
+    <t>Pri-EPCELP</t>
+  </si>
+  <si>
+    <t>Ecole Primaire Privé Les EMERITES</t>
+  </si>
+  <si>
+    <t>Pri-EPPLE</t>
   </si>
   <si>
     <t xml:space="preserve">Ecole Yamtenga </t>
   </si>
   <si>
-    <t xml:space="preserve">Pri-YAMT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ecole La Salle Badenya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pri-LSB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TBD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_PK_Studente_ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">__FK_Classe_ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CognomeNome</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D_inchiesta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nome</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cognome</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stato_Studente</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D_nascita</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CS_PY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A_inscr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parente</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tel_parente</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rang1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rang2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rang3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RangAnno</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Note_Studente</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D_iscrizione</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kabore Mouhaguidou</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mouhaguidou</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kabore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CONF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">surdité</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Korgho Octave</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Octave</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Korgho</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kafando Carine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kafando</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bravo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ecole du village</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ouedraogo Mohamed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mohamed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ouedraogo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ECOLE YAMTENGA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1590</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ilboudo Joel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Joel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ilboudo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kafando Salamata Kouka</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Salamata Kouka</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kiendrebeogo Elodie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elodie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kiendrebeogo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">redouble</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nacoulma Florentine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Florentine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nacoulma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nana Fadilatou</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fadilatou</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ouedraogo Faical</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Faical</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ouedraogo Obed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Obed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sam Abdoul Aquim</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abdoul Aquim</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wangrawa Nadia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nadia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wangrawa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zoungrana Issa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Issa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zoungrana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1600</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Congo Yacouba Robert</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yacouba Robert</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Congo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kafando Salif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Salif</t>
+    <t>Pri-YAMT</t>
+  </si>
+  <si>
+    <t>Ecole La Salle Badenya</t>
+  </si>
+  <si>
+    <t>Pri-LSB</t>
+  </si>
+  <si>
+    <t>TBD</t>
+  </si>
+  <si>
+    <t>_PK_Studente_ID</t>
+  </si>
+  <si>
+    <t>__FK_Classe_ID</t>
+  </si>
+  <si>
+    <t>CognomeNome</t>
+  </si>
+  <si>
+    <t>D_inchiesta</t>
+  </si>
+  <si>
+    <t>Nome</t>
+  </si>
+  <si>
+    <t>Cognome</t>
+  </si>
+  <si>
+    <t>Stato_Studente</t>
+  </si>
+  <si>
+    <t>Sex</t>
+  </si>
+  <si>
+    <t>D_nascita</t>
+  </si>
+  <si>
+    <t>CS_PY</t>
+  </si>
+  <si>
+    <t>Hand</t>
+  </si>
+  <si>
+    <t>A_inscr</t>
+  </si>
+  <si>
+    <t>Parente</t>
+  </si>
+  <si>
+    <t>Tel_parente</t>
+  </si>
+  <si>
+    <t>Rang1</t>
+  </si>
+  <si>
+    <t>Rang2</t>
+  </si>
+  <si>
+    <t>Rang3</t>
+  </si>
+  <si>
+    <t>RangAnno</t>
+  </si>
+  <si>
+    <t>Note_Studente</t>
+  </si>
+  <si>
+    <t>D_iscrizione</t>
+  </si>
+  <si>
+    <t>1408</t>
+  </si>
+  <si>
+    <t>Kabore Mouhaguidou</t>
+  </si>
+  <si>
+    <t>Mouhaguidou</t>
+  </si>
+  <si>
+    <t>Kabore</t>
+  </si>
+  <si>
+    <t>CONF</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t>DA</t>
+  </si>
+  <si>
+    <t>surdité</t>
+  </si>
+  <si>
+    <t>1415</t>
+  </si>
+  <si>
+    <t>Korgho Octave</t>
+  </si>
+  <si>
+    <t>Octave</t>
+  </si>
+  <si>
+    <t>Korgho</t>
+  </si>
+  <si>
+    <t>1479</t>
+  </si>
+  <si>
+    <t>Kafando Carine</t>
+  </si>
+  <si>
+    <t>Carine</t>
+  </si>
+  <si>
+    <t>Kafando</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Bravo</t>
+  </si>
+  <si>
+    <t>ecole du village</t>
+  </si>
+  <si>
+    <t>1497</t>
+  </si>
+  <si>
+    <t>Ouedraogo Mohamed</t>
+  </si>
+  <si>
+    <t>Mohamed</t>
+  </si>
+  <si>
+    <t>Ouedraogo</t>
+  </si>
+  <si>
+    <t>ECOLE YAMTENGA</t>
+  </si>
+  <si>
+    <t>1590</t>
+  </si>
+  <si>
+    <t>Ilboudo Joel</t>
+  </si>
+  <si>
+    <t>Joel</t>
+  </si>
+  <si>
+    <t>Ilboudo</t>
+  </si>
+  <si>
+    <t>1591</t>
+  </si>
+  <si>
+    <t>Kafando Salamata Kouka</t>
+  </si>
+  <si>
+    <t>Salamata Kouka</t>
+  </si>
+  <si>
+    <t>1592</t>
+  </si>
+  <si>
+    <t>Kiendrebeogo Elodie</t>
+  </si>
+  <si>
+    <t>Elodie</t>
+  </si>
+  <si>
+    <t>Kiendrebeogo</t>
+  </si>
+  <si>
+    <t>redouble</t>
+  </si>
+  <si>
+    <t>1593</t>
+  </si>
+  <si>
+    <t>Nacoulma Florentine</t>
+  </si>
+  <si>
+    <t>Florentine</t>
+  </si>
+  <si>
+    <t>Nacoulma</t>
+  </si>
+  <si>
+    <t>1594</t>
+  </si>
+  <si>
+    <t>Nana Fadilatou</t>
+  </si>
+  <si>
+    <t>Fadilatou</t>
+  </si>
+  <si>
+    <t>Nana</t>
+  </si>
+  <si>
+    <t>1595</t>
+  </si>
+  <si>
+    <t>Ouedraogo Faical</t>
+  </si>
+  <si>
+    <t>Faical</t>
+  </si>
+  <si>
+    <t>1596</t>
+  </si>
+  <si>
+    <t>Ouedraogo Obed</t>
+  </si>
+  <si>
+    <t>Obed</t>
+  </si>
+  <si>
+    <t>1597</t>
+  </si>
+  <si>
+    <t>Sam Abdoul Aquim</t>
+  </si>
+  <si>
+    <t>Abdoul Aquim</t>
+  </si>
+  <si>
+    <t>Sam</t>
+  </si>
+  <si>
+    <t>1598</t>
+  </si>
+  <si>
+    <t>Wangrawa Nadia</t>
+  </si>
+  <si>
+    <t>Nadia</t>
+  </si>
+  <si>
+    <t>Wangrawa</t>
+  </si>
+  <si>
+    <t>1599</t>
+  </si>
+  <si>
+    <t>Zoungrana Issa</t>
+  </si>
+  <si>
+    <t>Issa</t>
+  </si>
+  <si>
+    <t>Zoungrana</t>
+  </si>
+  <si>
+    <t>1600</t>
+  </si>
+  <si>
+    <t>Congo Yacouba Robert</t>
+  </si>
+  <si>
+    <t>Yacouba Robert</t>
+  </si>
+  <si>
+    <t>Congo</t>
+  </si>
+  <si>
+    <t>ABAN</t>
+  </si>
+  <si>
+    <t>1601</t>
+  </si>
+  <si>
+    <t>Kafando Salif</t>
+  </si>
+  <si>
+    <t>Salif</t>
   </si>
   <si>
     <t xml:space="preserve">redouble
 exclu de l'ecole pour mauvaise conduite </t>
   </si>
   <si>
-    <t xml:space="preserve">1602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yameogo Alassane</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alassane</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yameogo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alantinga Anselme</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anselme</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alantinga</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fille de Jean Baptiste</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Compaore W.Rene Astrid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">W.Rene Astrid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Compaore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dabone Angele</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Angele</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dabone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kabre Abdoul Nassirou</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abdoul Nassirou</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kabre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nikiema Tatiana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tatiana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nikiema</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sandwidi Tatiana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sandwidi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fille de Awa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sinare Mahamoudou</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mahamoudou</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sinare</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1610</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zangre Abdoul Rachid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abdoul Rachid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zangre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zoungrana Ignace Wendpanga Olivier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ignace Wendpanga Olivier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fille de Marguerite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zoungrana Zenabo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zenabo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fille de Mahamadi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nikiema Mahamadi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mahamadi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">redouble
+    <t>1602</t>
+  </si>
+  <si>
+    <t>Yameogo Alassane</t>
+  </si>
+  <si>
+    <t>Alassane</t>
+  </si>
+  <si>
+    <t>Yameogo</t>
+  </si>
+  <si>
+    <t>1603</t>
+  </si>
+  <si>
+    <t>Alantinga Anselme</t>
+  </si>
+  <si>
+    <t>Anselme</t>
+  </si>
+  <si>
+    <t>Alantinga</t>
+  </si>
+  <si>
+    <t>Extra</t>
+  </si>
+  <si>
+    <t>fille de Jean Baptiste</t>
+  </si>
+  <si>
+    <t>1604</t>
+  </si>
+  <si>
+    <t>Compaore W.Rene Astrid</t>
+  </si>
+  <si>
+    <t>W.Rene Astrid</t>
+  </si>
+  <si>
+    <t>Compaore</t>
+  </si>
+  <si>
+    <t>1605</t>
+  </si>
+  <si>
+    <t>Dabone Angele</t>
+  </si>
+  <si>
+    <t>Angele</t>
+  </si>
+  <si>
+    <t>Dabone</t>
+  </si>
+  <si>
+    <t>1606</t>
+  </si>
+  <si>
+    <t>Kabre Abdoul Nassirou</t>
+  </si>
+  <si>
+    <t>Abdoul Nassirou</t>
+  </si>
+  <si>
+    <t>Kabre</t>
+  </si>
+  <si>
+    <t>1607</t>
+  </si>
+  <si>
+    <t>Nikiema Tatiana</t>
+  </si>
+  <si>
+    <t>Tatiana</t>
+  </si>
+  <si>
+    <t>Nikiema</t>
+  </si>
+  <si>
+    <t>1608</t>
+  </si>
+  <si>
+    <t>Sandwidi Tatiana</t>
+  </si>
+  <si>
+    <t>Sandwidi</t>
+  </si>
+  <si>
+    <t>fille de Awa</t>
+  </si>
+  <si>
+    <t>1609</t>
+  </si>
+  <si>
+    <t>Sinare Mahamoudou</t>
+  </si>
+  <si>
+    <t>Mahamoudou</t>
+  </si>
+  <si>
+    <t>Sinare</t>
+  </si>
+  <si>
+    <t>1610</t>
+  </si>
+  <si>
+    <t>Zangre Abdoul Rachid</t>
+  </si>
+  <si>
+    <t>Abdoul Rachid</t>
+  </si>
+  <si>
+    <t>Zangre</t>
+  </si>
+  <si>
+    <t>1611</t>
+  </si>
+  <si>
+    <t>Zoungrana Ignace Wendpanga Olivier</t>
+  </si>
+  <si>
+    <t>Ignace Wendpanga Olivier</t>
+  </si>
+  <si>
+    <t>fille de Marguerite</t>
+  </si>
+  <si>
+    <t>1612</t>
+  </si>
+  <si>
+    <t>Zoungrana Zenabo</t>
+  </si>
+  <si>
+    <t>Zenabo</t>
+  </si>
+  <si>
+    <t>fille de Mahamadi</t>
+  </si>
+  <si>
+    <t>1613</t>
+  </si>
+  <si>
+    <t>Nikiema Mahamadi</t>
+  </si>
+  <si>
+    <t>Mahamadi</t>
+  </si>
+  <si>
+    <t>redouble
 exclu de l'ecole pour mauvais conduite</t>
   </si>
   <si>
-    <t xml:space="preserve">1614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ilboudo Benewendé Naomie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Benewendé Naomie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ilboudo Wendkouni Simplice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wendkouni Simplice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pafanam Natacha Erica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Natacha Erica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pafanam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sawadogo Mimtury Nemata</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mimtury Nemata</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sawadogo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kiemtore Théophile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Théophile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kiemtore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ouedraogo Yasmina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yasmina</t>
+    <t>1614</t>
+  </si>
+  <si>
+    <t>Ilboudo Benewendé Naomie</t>
+  </si>
+  <si>
+    <t>Benewendé Naomie</t>
+  </si>
+  <si>
+    <t>1615</t>
+  </si>
+  <si>
+    <t>Ilboudo Wendkouni Simplice</t>
+  </si>
+  <si>
+    <t>Wendkouni Simplice</t>
+  </si>
+  <si>
+    <t>1616</t>
+  </si>
+  <si>
+    <t>Pafanam Natacha Erica</t>
+  </si>
+  <si>
+    <t>Natacha Erica</t>
+  </si>
+  <si>
+    <t>Pafanam</t>
+  </si>
+  <si>
+    <t>1617</t>
+  </si>
+  <si>
+    <t>Sawadogo Mimtury Nemata</t>
+  </si>
+  <si>
+    <t>Mimtury Nemata</t>
+  </si>
+  <si>
+    <t>Sawadogo</t>
+  </si>
+  <si>
+    <t>1618</t>
+  </si>
+  <si>
+    <t>Kiemtore Théophile</t>
+  </si>
+  <si>
+    <t>Théophile</t>
+  </si>
+  <si>
+    <t>Kiemtore</t>
+  </si>
+  <si>
+    <t>1619</t>
+  </si>
+  <si>
+    <t>Ouedraogo Yasmina</t>
+  </si>
+  <si>
+    <t>Yasmina</t>
   </si>
   <si>
     <t xml:space="preserve">fille de AWA
 exclu de son école </t>
   </si>
   <si>
-    <t xml:space="preserve">1620</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Compaore Adjaratou</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adjaratou</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Koanda Pegwendé</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pegwendé</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Koanda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABANDON</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ilboudou Mathias</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mathias</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ilboudou</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tommaso</t>
+    <t>1620</t>
+  </si>
+  <si>
+    <t>Compaore Adjaratou</t>
+  </si>
+  <si>
+    <t>Adjaratou</t>
+  </si>
+  <si>
+    <t>1621</t>
+  </si>
+  <si>
+    <t>Koanda Pegwendé</t>
+  </si>
+  <si>
+    <t>Pegwendé</t>
+  </si>
+  <si>
+    <t>Koanda</t>
+  </si>
+  <si>
+    <t>ABANDON</t>
+  </si>
+  <si>
+    <t>1622</t>
+  </si>
+  <si>
+    <t>Ilboudou Mathias</t>
+  </si>
+  <si>
+    <t>Mathias</t>
+  </si>
+  <si>
+    <t>Ilboudou</t>
+  </si>
+  <si>
+    <t>Tommaso</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="@"/>
-    <numFmt numFmtId="166" formatCode="dd/mm/yyyy"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -1143,7 +1134,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1151,86 +1142,352 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+  <cellStyles count="1">
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E60"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+    <sheetView topLeftCell="B1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="25.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="25.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1247,7 +1504,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -1260,11 +1517,11 @@
       <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="3" t="n">
+      <c r="E2" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -1277,11 +1534,11 @@
       <c r="D3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="3" t="n">
+      <c r="E3" s="3">
         <v>11</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -1294,11 +1551,11 @@
       <c r="D4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="3" t="n">
+      <c r="E4" s="3">
         <v>12</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
@@ -1311,11 +1568,11 @@
       <c r="D5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="3" t="n">
+      <c r="E5" s="3">
         <v>13</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>18</v>
       </c>
@@ -1328,11 +1585,11 @@
       <c r="D6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="3" t="n">
+      <c r="E6" s="3">
         <v>14</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>21</v>
       </c>
@@ -1345,11 +1602,11 @@
       <c r="D7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="3" t="n">
+      <c r="E7" s="3">
         <v>15</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>24</v>
       </c>
@@ -1362,11 +1619,11 @@
       <c r="D8" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="3" t="n">
+      <c r="E8" s="3">
         <v>16</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>27</v>
       </c>
@@ -1379,11 +1636,11 @@
       <c r="D9" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="3" t="n">
+      <c r="E9" s="3">
         <v>210</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>30</v>
       </c>
@@ -1396,11 +1653,11 @@
       <c r="D10" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="3" t="n">
+      <c r="E10" s="3">
         <v>211</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>32</v>
       </c>
@@ -1413,11 +1670,11 @@
       <c r="D11" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="3" t="n">
+      <c r="E11" s="3">
         <v>212</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>34</v>
       </c>
@@ -1430,11 +1687,11 @@
       <c r="D12" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="3" t="n">
+      <c r="E12" s="3">
         <v>213</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>36</v>
       </c>
@@ -1447,11 +1704,11 @@
       <c r="D13" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="3" t="n">
+      <c r="E13" s="3">
         <v>214</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>38</v>
       </c>
@@ -1464,11 +1721,11 @@
       <c r="D14" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E14" s="3" t="n">
+      <c r="E14" s="3">
         <v>215</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
         <v>40</v>
       </c>
@@ -1481,11 +1738,11 @@
       <c r="D15" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E15" s="3" t="n">
+      <c r="E15" s="3">
         <v>216</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
         <v>42</v>
       </c>
@@ -1498,11 +1755,11 @@
       <c r="D16" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E16" s="3" t="n">
+      <c r="E16" s="3">
         <v>310</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
         <v>45</v>
       </c>
@@ -1515,11 +1772,11 @@
       <c r="D17" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E17" s="3" t="n">
+      <c r="E17" s="3">
         <v>311</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
         <v>47</v>
       </c>
@@ -1532,11 +1789,11 @@
       <c r="D18" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E18" s="3" t="n">
+      <c r="E18" s="3">
         <v>312</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
         <v>49</v>
       </c>
@@ -1549,11 +1806,11 @@
       <c r="D19" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E19" s="3" t="n">
+      <c r="E19" s="3">
         <v>313</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
         <v>51</v>
       </c>
@@ -1566,11 +1823,11 @@
       <c r="D20" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E20" s="3" t="n">
+      <c r="E20" s="3">
         <v>314</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
         <v>53</v>
       </c>
@@ -1583,11 +1840,11 @@
       <c r="D21" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E21" s="3" t="n">
+      <c r="E21" s="3">
         <v>315</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
         <v>55</v>
       </c>
@@ -1600,11 +1857,11 @@
       <c r="D22" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E22" s="3" t="n">
+      <c r="E22" s="3">
         <v>316</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
         <v>57</v>
       </c>
@@ -1617,11 +1874,11 @@
       <c r="D23" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E23" s="3" t="n">
+      <c r="E23" s="3">
         <v>410</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
         <v>60</v>
       </c>
@@ -1634,11 +1891,11 @@
       <c r="D24" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E24" s="3" t="n">
+      <c r="E24" s="3">
         <v>411</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
         <v>62</v>
       </c>
@@ -1651,11 +1908,11 @@
       <c r="D25" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E25" s="3" t="n">
+      <c r="E25" s="3">
         <v>412</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="s">
         <v>64</v>
       </c>
@@ -1668,11 +1925,11 @@
       <c r="D26" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E26" s="3" t="n">
+      <c r="E26" s="3">
         <v>413</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27" s="2" t="s">
         <v>66</v>
       </c>
@@ -1685,11 +1942,11 @@
       <c r="D27" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E27" s="3" t="n">
+      <c r="E27" s="3">
         <v>414</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28" s="2" t="s">
         <v>68</v>
       </c>
@@ -1702,11 +1959,11 @@
       <c r="D28" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E28" s="3" t="n">
+      <c r="E28" s="3">
         <v>415</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
         <v>70</v>
       </c>
@@ -1719,11 +1976,11 @@
       <c r="D29" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E29" s="3" t="n">
+      <c r="E29" s="3">
         <v>416</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
         <v>72</v>
       </c>
@@ -1736,11 +1993,11 @@
       <c r="D30" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E30" s="3" t="n">
+      <c r="E30" s="3">
         <v>510</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A31" s="2" t="s">
         <v>75</v>
       </c>
@@ -1753,11 +2010,11 @@
       <c r="D31" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E31" s="3" t="n">
+      <c r="E31" s="3">
         <v>511</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32" s="2" t="s">
         <v>77</v>
       </c>
@@ -1770,11 +2027,11 @@
       <c r="D32" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E32" s="3" t="n">
+      <c r="E32" s="3">
         <v>512</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" s="2" t="s">
         <v>79</v>
       </c>
@@ -1787,11 +2044,11 @@
       <c r="D33" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="E33" s="3" t="n">
+      <c r="E33" s="3">
         <v>513</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" s="2" t="s">
         <v>81</v>
       </c>
@@ -1804,11 +2061,11 @@
       <c r="D34" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E34" s="3" t="n">
+      <c r="E34" s="3">
         <v>514</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" s="2" t="s">
         <v>83</v>
       </c>
@@ -1821,11 +2078,11 @@
       <c r="D35" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E35" s="3" t="n">
+      <c r="E35" s="3">
         <v>515</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" s="2" t="s">
         <v>85</v>
       </c>
@@ -1838,11 +2095,11 @@
       <c r="D36" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="E36" s="3" t="n">
+      <c r="E36" s="3">
         <v>516</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" s="2" t="s">
         <v>87</v>
       </c>
@@ -1855,11 +2112,11 @@
       <c r="D37" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="E37" s="3" t="n">
+      <c r="E37" s="3">
         <v>604</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38" s="2" t="s">
         <v>91</v>
       </c>
@@ -1872,11 +2129,11 @@
       <c r="D38" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="E38" s="3" t="n">
+      <c r="E38" s="3">
         <v>605</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
         <v>94</v>
       </c>
@@ -1889,11 +2146,11 @@
       <c r="D39" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E39" s="3" t="n">
+      <c r="E39" s="3">
         <v>606</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A40" s="2" t="s">
         <v>97</v>
       </c>
@@ -1906,11 +2163,11 @@
       <c r="D40" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E40" s="3" t="n">
+      <c r="E40" s="3">
         <v>607</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A41" s="2" t="s">
         <v>100</v>
       </c>
@@ -1923,11 +2180,11 @@
       <c r="D41" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E41" s="3" t="n">
+      <c r="E41" s="3">
         <v>608</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A42" s="2" t="s">
         <v>103</v>
       </c>
@@ -1940,11 +2197,11 @@
       <c r="D42" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="E42" s="3" t="n">
+      <c r="E42" s="3">
         <v>609</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A43" s="2" t="s">
         <v>106</v>
       </c>
@@ -1957,11 +2214,11 @@
       <c r="D43" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="E43" s="3" t="n">
+      <c r="E43" s="3">
         <v>704</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A44" s="2" t="s">
         <v>109</v>
       </c>
@@ -1974,11 +2231,11 @@
       <c r="D44" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="E44" s="3" t="n">
+      <c r="E44" s="3">
         <v>705</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A45" s="2" t="s">
         <v>111</v>
       </c>
@@ -1991,11 +2248,11 @@
       <c r="D45" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="E45" s="3" t="n">
+      <c r="E45" s="3">
         <v>706</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A46" s="2" t="s">
         <v>113</v>
       </c>
@@ -2008,11 +2265,11 @@
       <c r="D46" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="E46" s="3" t="n">
+      <c r="E46" s="3">
         <v>707</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A47" s="2" t="s">
         <v>115</v>
       </c>
@@ -2025,11 +2282,11 @@
       <c r="D47" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="E47" s="3" t="n">
+      <c r="E47" s="3">
         <v>708</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A48" s="2" t="s">
         <v>117</v>
       </c>
@@ -2042,11 +2299,11 @@
       <c r="D48" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="E48" s="3" t="n">
+      <c r="E48" s="3">
         <v>709</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A49" s="2" t="s">
         <v>119</v>
       </c>
@@ -2059,11 +2316,11 @@
       <c r="D49" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="E49" s="3" t="n">
+      <c r="E49" s="3">
         <v>804</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A50" s="2" t="s">
         <v>122</v>
       </c>
@@ -2076,11 +2333,11 @@
       <c r="D50" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="E50" s="3" t="n">
+      <c r="E50" s="3">
         <v>805</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A51" s="2" t="s">
         <v>124</v>
       </c>
@@ -2093,11 +2350,11 @@
       <c r="D51" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="E51" s="3" t="n">
+      <c r="E51" s="3">
         <v>806</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A52" s="2" t="s">
         <v>126</v>
       </c>
@@ -2110,11 +2367,11 @@
       <c r="D52" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="E52" s="3" t="n">
+      <c r="E52" s="3">
         <v>807</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A53" s="2" t="s">
         <v>128</v>
       </c>
@@ -2127,11 +2384,11 @@
       <c r="D53" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="E53" s="3" t="n">
+      <c r="E53" s="3">
         <v>808</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A54" s="2" t="s">
         <v>130</v>
       </c>
@@ -2144,11 +2401,11 @@
       <c r="D54" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="E54" s="3" t="n">
+      <c r="E54" s="3">
         <v>809</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A55" s="2" t="s">
         <v>132</v>
       </c>
@@ -2161,11 +2418,11 @@
       <c r="D55" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="E55" s="3" t="n">
+      <c r="E55" s="3">
         <v>904</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A56" s="2" t="s">
         <v>135</v>
       </c>
@@ -2178,11 +2435,11 @@
       <c r="D56" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="E56" s="3" t="n">
+      <c r="E56" s="3">
         <v>905</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A57" s="2" t="s">
         <v>137</v>
       </c>
@@ -2195,11 +2452,11 @@
       <c r="D57" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="E57" s="3" t="n">
+      <c r="E57" s="3">
         <v>906</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A58" s="2" t="s">
         <v>139</v>
       </c>
@@ -2212,11 +2469,11 @@
       <c r="D58" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="E58" s="3" t="n">
+      <c r="E58" s="3">
         <v>907</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A59" s="2" t="s">
         <v>141</v>
       </c>
@@ -2229,11 +2486,11 @@
       <c r="D59" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="E59" s="3" t="n">
+      <c r="E59" s="3">
         <v>908</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A60" s="2" t="s">
         <v>143</v>
       </c>
@@ -2246,15 +2503,14 @@
       <c r="D60" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="E60" s="3" t="n">
+      <c r="E60" s="3">
         <v>909</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -2262,25 +2518,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+    <sheetView topLeftCell="C1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="25.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="25.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="55.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="21.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="21.48"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="20.8"/>
+    <col min="2" max="2" width="55.33203125" customWidth="1"/>
+    <col min="3" max="3" width="21" customWidth="1"/>
+    <col min="4" max="4" width="21.5" customWidth="1"/>
+    <col min="6" max="6" width="20.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>145</v>
       </c>
@@ -2300,14 +2553,14 @@
         <v>150</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>151</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="C2" s="3" t="n">
+      <c r="C2" s="3">
         <v>100</v>
       </c>
       <c r="E2" s="2" t="s">
@@ -2317,14 +2570,14 @@
         <v>154</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>155</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="C3" s="3" t="n">
+      <c r="C3" s="3">
         <v>100</v>
       </c>
       <c r="E3" s="2" t="s">
@@ -2334,14 +2587,14 @@
         <v>158</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C4" s="3" t="n">
+      <c r="C4" s="3">
         <v>200</v>
       </c>
       <c r="E4" s="2" t="s">
@@ -2351,14 +2604,14 @@
         <v>161</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="C5" s="3" t="n">
+      <c r="C5" s="3">
         <v>300</v>
       </c>
       <c r="E5" s="2" t="s">
@@ -2368,14 +2621,14 @@
         <v>163</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>58</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="C6" s="3" t="n">
+      <c r="C6" s="3">
         <v>400</v>
       </c>
       <c r="E6" s="2" t="s">
@@ -2385,14 +2638,14 @@
         <v>165</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C7" s="3" t="n">
+      <c r="C7" s="3">
         <v>500</v>
       </c>
       <c r="E7" s="2" t="s">
@@ -2402,14 +2655,14 @@
         <v>167</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>88</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="C8" s="3" t="n">
+      <c r="C8" s="3">
         <v>600</v>
       </c>
       <c r="E8" s="2" t="s">
@@ -2419,14 +2672,14 @@
         <v>169</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>107</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="C9" s="3" t="n">
+      <c r="C9" s="3">
         <v>700</v>
       </c>
       <c r="E9" s="2" t="s">
@@ -2436,14 +2689,14 @@
         <v>171</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>120</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="C10" s="3" t="n">
+      <c r="C10" s="3">
         <v>800</v>
       </c>
       <c r="E10" s="2" t="s">
@@ -2453,14 +2706,14 @@
         <v>173</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>133</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="C11" s="3" t="n">
+      <c r="C11" s="3">
         <v>900</v>
       </c>
       <c r="E11" s="2" t="s">
@@ -2470,14 +2723,14 @@
         <v>175</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="C12" s="3" t="n">
+      <c r="C12" s="3">
         <v>0</v>
       </c>
       <c r="E12" s="2" t="s">
@@ -2488,10 +2741,9 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -2499,23 +2751,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:T38"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="25.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="25.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="37.03"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="49.6"/>
+    <col min="3" max="3" width="37" customWidth="1"/>
+    <col min="19" max="19" width="49.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:20" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>177</v>
       </c>
@@ -2577,7 +2826,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>197</v>
       </c>
@@ -2599,7 +2848,7 @@
       <c r="H2" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="I2" s="5" t="n">
+      <c r="I2" s="5">
         <v>41948</v>
       </c>
       <c r="J2" s="2" t="s">
@@ -2612,7 +2861,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>206</v>
       </c>
@@ -2634,14 +2883,14 @@
       <c r="H3" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="I3" s="5" t="n">
+      <c r="I3" s="5">
         <v>41949</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>210</v>
       </c>
@@ -2663,7 +2912,7 @@
       <c r="H4" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="I4" s="5" t="n">
+      <c r="I4" s="5">
         <v>41587</v>
       </c>
       <c r="J4" s="2" t="s">
@@ -2673,7 +2922,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>217</v>
       </c>
@@ -2695,7 +2944,7 @@
       <c r="H5" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="I5" s="5" t="n">
+      <c r="I5" s="5">
         <v>41400</v>
       </c>
       <c r="J5" s="2" t="s">
@@ -2705,7 +2954,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>222</v>
       </c>
@@ -2727,17 +2976,17 @@
       <c r="H6" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="I6" s="5" t="n">
+      <c r="I6" s="5">
         <v>40902</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="O6" s="3" t="n">
+      <c r="O6" s="3">
         <v>75</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>226</v>
       </c>
@@ -2747,7 +2996,7 @@
       <c r="C7" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="D7" s="5" t="n">
+      <c r="D7" s="5">
         <v>42621</v>
       </c>
       <c r="E7" s="2" t="s">
@@ -2762,17 +3011,17 @@
       <c r="H7" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="I7" s="5" t="n">
+      <c r="I7" s="5">
         <v>40540</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="O7" s="3" t="n">
+      <c r="O7" s="3">
         <v>13</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>229</v>
       </c>
@@ -2794,20 +3043,20 @@
       <c r="H8" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="I8" s="5" t="n">
+      <c r="I8" s="5">
         <v>40161</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="O8" s="3" t="n">
+      <c r="O8" s="3">
         <v>33</v>
       </c>
       <c r="S8" s="2" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>234</v>
       </c>
@@ -2817,7 +3066,7 @@
       <c r="C9" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="D9" s="5" t="n">
+      <c r="D9" s="5">
         <v>42397</v>
       </c>
       <c r="E9" s="2" t="s">
@@ -2832,14 +3081,14 @@
       <c r="H9" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="I9" s="5" t="n">
+      <c r="I9" s="5">
         <v>40840</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>238</v>
       </c>
@@ -2849,7 +3098,7 @@
       <c r="C10" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="D10" s="5" t="n">
+      <c r="D10" s="5">
         <v>42277</v>
       </c>
       <c r="E10" s="2" t="s">
@@ -2864,17 +3113,17 @@
       <c r="H10" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="I10" s="5" t="n">
+      <c r="I10" s="5">
         <v>40580</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="O10" s="3" t="n">
+      <c r="O10" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>242</v>
       </c>
@@ -2884,7 +3133,7 @@
       <c r="C11" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="D11" s="5" t="n">
+      <c r="D11" s="5">
         <v>41870</v>
       </c>
       <c r="E11" s="2" t="s">
@@ -2899,17 +3148,17 @@
       <c r="H11" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="I11" s="5" t="n">
+      <c r="I11" s="5">
         <v>40202</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="O11" s="3" t="n">
+      <c r="O11" s="3">
         <v>69</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>245</v>
       </c>
@@ -2931,17 +3180,17 @@
       <c r="H12" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="I12" s="5" t="n">
+      <c r="I12" s="5">
         <v>40796</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="O12" s="3" t="n">
+      <c r="O12" s="3">
         <v>34</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>248</v>
       </c>
@@ -2951,7 +3200,7 @@
       <c r="C13" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="D13" s="5" t="n">
+      <c r="D13" s="5">
         <v>42247</v>
       </c>
       <c r="E13" s="2" t="s">
@@ -2966,14 +3215,14 @@
       <c r="H13" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="I13" s="5" t="n">
+      <c r="I13" s="5">
         <v>40838</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>252</v>
       </c>
@@ -2983,7 +3232,7 @@
       <c r="C14" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="D14" s="5" t="n">
+      <c r="D14" s="5">
         <v>42619</v>
       </c>
       <c r="E14" s="2" t="s">
@@ -2998,17 +3247,17 @@
       <c r="H14" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="I14" s="5" t="n">
+      <c r="I14" s="5">
         <v>40799</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="O14" s="3" t="n">
+      <c r="O14" s="3">
         <v>36</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
         <v>256</v>
       </c>
@@ -3030,14 +3279,14 @@
       <c r="H15" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="I15" s="5" t="n">
+      <c r="I15" s="5">
         <v>39889</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
         <v>260</v>
       </c>
@@ -3059,7 +3308,7 @@
       <c r="H16" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="I16" s="5" t="n">
+      <c r="I16" s="5">
         <v>39933</v>
       </c>
       <c r="J16" s="2" t="s">
@@ -3069,7 +3318,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="23.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:19" ht="28" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
         <v>265</v>
       </c>
@@ -3091,7 +3340,7 @@
       <c r="H17" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="I17" s="5" t="n">
+      <c r="I17" s="5">
         <v>39800</v>
       </c>
       <c r="J17" s="2" t="s">
@@ -3101,7 +3350,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
         <v>269</v>
       </c>
@@ -3123,14 +3372,14 @@
       <c r="H18" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="I18" s="5" t="n">
+      <c r="I18" s="5">
         <v>39500</v>
       </c>
       <c r="J18" s="2" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
         <v>273</v>
       </c>
@@ -3152,7 +3401,7 @@
       <c r="H19" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="I19" s="5" t="n">
+      <c r="I19" s="5">
         <v>40288</v>
       </c>
       <c r="J19" s="2" t="s">
@@ -3162,7 +3411,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
         <v>279</v>
       </c>
@@ -3184,17 +3433,17 @@
       <c r="H20" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="I20" s="5" t="n">
+      <c r="I20" s="5">
         <v>39740</v>
       </c>
       <c r="J20" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="O20" s="3" t="n">
+      <c r="O20" s="3">
         <v>70</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
         <v>283</v>
       </c>
@@ -3204,7 +3453,7 @@
       <c r="C21" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="D21" s="5" t="n">
+      <c r="D21" s="5">
         <v>41871</v>
       </c>
       <c r="E21" s="2" t="s">
@@ -3219,17 +3468,17 @@
       <c r="H21" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="I21" s="5" t="n">
+      <c r="I21" s="5">
         <v>40183</v>
       </c>
       <c r="J21" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="O21" s="3" t="n">
+      <c r="O21" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
         <v>287</v>
       </c>
@@ -3239,7 +3488,7 @@
       <c r="C22" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="D22" s="5" t="n">
+      <c r="D22" s="5">
         <v>41871</v>
       </c>
       <c r="E22" s="2" t="s">
@@ -3254,17 +3503,17 @@
       <c r="H22" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="I22" s="5" t="n">
+      <c r="I22" s="5">
         <v>40456</v>
       </c>
       <c r="J22" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="O22" s="3" t="n">
+      <c r="O22" s="3">
         <v>53</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
         <v>291</v>
       </c>
@@ -3286,17 +3535,17 @@
       <c r="H23" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="I23" s="5" t="n">
+      <c r="I23" s="5">
         <v>40181</v>
       </c>
       <c r="J23" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="O23" s="3" t="n">
+      <c r="O23" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
         <v>295</v>
       </c>
@@ -3318,20 +3567,20 @@
       <c r="H24" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="I24" s="5" t="n">
+      <c r="I24" s="5">
         <v>40122</v>
       </c>
       <c r="J24" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="O24" s="3" t="n">
+      <c r="O24" s="3">
         <v>52</v>
       </c>
       <c r="S24" s="2" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
         <v>299</v>
       </c>
@@ -3341,7 +3590,7 @@
       <c r="C25" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="D25" s="5" t="n">
+      <c r="D25" s="5">
         <v>41869</v>
       </c>
       <c r="E25" s="2" t="s">
@@ -3356,14 +3605,14 @@
       <c r="H25" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="I25" s="5" t="n">
+      <c r="I25" s="5">
         <v>40287</v>
       </c>
       <c r="J25" s="2" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="s">
         <v>303</v>
       </c>
@@ -3373,7 +3622,7 @@
       <c r="C26" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="D26" s="5" t="n">
+      <c r="D26" s="5">
         <v>42248</v>
       </c>
       <c r="E26" s="2" t="s">
@@ -3388,17 +3637,17 @@
       <c r="H26" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="I26" s="5" t="n">
+      <c r="I26" s="5">
         <v>40317</v>
       </c>
       <c r="J26" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="O26" s="3" t="n">
+      <c r="O26" s="3">
         <v>22</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A27" s="2" t="s">
         <v>307</v>
       </c>
@@ -3420,7 +3669,7 @@
       <c r="H27" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="I27" s="5" t="n">
+      <c r="I27" s="5">
         <v>40468</v>
       </c>
       <c r="J27" s="2" t="s">
@@ -3430,7 +3679,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A28" s="2" t="s">
         <v>311</v>
       </c>
@@ -3452,20 +3701,20 @@
       <c r="H28" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="I28" s="5" t="n">
+      <c r="I28" s="5">
         <v>38630</v>
       </c>
       <c r="J28" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="O28" s="3" t="n">
+      <c r="O28" s="3">
         <v>45</v>
       </c>
       <c r="S28" s="2" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="23.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:19" ht="28" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
         <v>315</v>
       </c>
@@ -3487,7 +3736,7 @@
       <c r="H29" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="I29" s="5" t="n">
+      <c r="I29" s="5">
         <v>39727</v>
       </c>
       <c r="J29" s="2" t="s">
@@ -3497,7 +3746,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
         <v>319</v>
       </c>
@@ -3519,14 +3768,14 @@
       <c r="H30" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="I30" s="5" t="n">
+      <c r="I30" s="5">
         <v>40126</v>
       </c>
       <c r="J30" s="2" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A31" s="2" t="s">
         <v>322</v>
       </c>
@@ -3548,14 +3797,14 @@
       <c r="H31" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="I31" s="5" t="n">
+      <c r="I31" s="5">
         <v>39719</v>
       </c>
       <c r="J31" s="2" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A32" s="2" t="s">
         <v>325</v>
       </c>
@@ -3577,14 +3826,14 @@
       <c r="H32" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="I32" s="5" t="n">
+      <c r="I32" s="5">
         <v>40054</v>
       </c>
       <c r="J32" s="2" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A33" s="2" t="s">
         <v>329</v>
       </c>
@@ -3606,17 +3855,17 @@
       <c r="H33" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="I33" s="5" t="n">
+      <c r="I33" s="5">
         <v>39803</v>
       </c>
       <c r="J33" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="O33" s="3" t="n">
+      <c r="O33" s="3">
         <v>33</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A34" s="2" t="s">
         <v>333</v>
       </c>
@@ -3626,7 +3875,7 @@
       <c r="C34" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="D34" s="5" t="n">
+      <c r="D34" s="5">
         <v>41870</v>
       </c>
       <c r="E34" s="2" t="s">
@@ -3641,14 +3890,14 @@
       <c r="H34" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="I34" s="5" t="n">
+      <c r="I34" s="5">
         <v>39804</v>
       </c>
       <c r="J34" s="2" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="23.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:19" ht="28" x14ac:dyDescent="0.15">
       <c r="A35" s="2" t="s">
         <v>337</v>
       </c>
@@ -3677,7 +3926,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A36" s="2" t="s">
         <v>341</v>
       </c>
@@ -3699,17 +3948,17 @@
       <c r="H36" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="I36" s="5" t="n">
+      <c r="I36" s="5">
         <v>39934</v>
       </c>
       <c r="J36" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="O36" s="3" t="n">
+      <c r="O36" s="3">
         <v>32</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A37" s="2" t="s">
         <v>344</v>
       </c>
@@ -3731,7 +3980,7 @@
       <c r="H37" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="I37" s="5" t="n">
+      <c r="I37" s="5">
         <v>39633</v>
       </c>
       <c r="J37" s="2" t="s">
@@ -3741,7 +3990,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A38" s="2" t="s">
         <v>349</v>
       </c>
@@ -3771,10 +4020,10 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <autoFilter ref="A1:T1" xr:uid="{00000000-0001-0000-0200-000000000000}"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
